--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Young/Arthur_Young.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Young/Arthur_Young.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Young, né le 11 septembre 1741 et mort le 12 avril 1820 à Londres, est un agriculteur et agronome britannique. Auteur de nombreux ouvrages, il eut de son vivant une grande renommée. Son Voyages en France, paru en 1792, livre des informations précieuses sur la France rurale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Young, dernier de trois enfants, est prêtre dans le Suffolk et aumônier d'Arthur Onslow, président de la Chambre des communes.
 Il fréquente l'école de Lavenham, puis, en 1758, est mis en apprentissage chez un négociant en vin à King's Lynn. Il fréquente alors les théâtres et les réunions politiques. Dès 1758 est publié son premier texte, The Theatre of the Present War in North America. En 1761, son apprentissage terminé, il s'installe à Londres. Il y monte un journal, l'Universal Museum, qu'il abandonne peu après.
@@ -520,10 +534,10 @@
 En 1776, il entreprend un nouveau voyage, en Irlande. Il voyage beaucoup mais rentre au bout de quelques mois, sans un sou. L'année suivante, il se voit confier la gestion d'un grand domaine aristocratique au Nord de Cork et peut donc retourner en Irlande, et abandonne North Mymms. Toutefois, il quitte à nouveau l'Irlande, au bout d'un an, pour des raisons inconnues. Il retourne alors à son ancien domaine de Bradfields. En 1780, il publie A Tour in Ireland, qui est aujourd'hui encore un important témoignage sur l'Irlande de cette époque.
 Visitant la France entre 1787 et 1789, il fournit des renseignements importants sur les techniques agricoles de l'époque ainsi que sur le déroulement de la Révolution. Il est souvent consterné par l'aspect arriéré de nombreuses campagnes françaises : en fait il associe le paysage enclos du bocage et l’irrigation au progrès agricole.
 À partir de 1782, il hérite, d'une tante, puis de sa mère et de son frère. Il se trouve alors à la tête d'un domaine assez important et conduit de nombreuses expérimentations de culture, et de techniques agricoles. Sur les résultats pratiques de son entreprise, les témoignages divergent, mais il jouit d'une réelle notoriété. À partir de 1784, il publie une revue, Annals of Agriculture.
-Il entreprend trois voyages en France, entre 1787 et 1790. En Bretagne, à Rennes, il constate l'écart entre la noblesse et la roture, le mécontentement des nobles, le parlement ayant été banni et celui du peuple devant la cherté de la vie, alors que de nombreuses troupes campent aux portes de la ville[1]. Il observe avec minutie ce pays étranger, et à chaque étape de son voyage, il décrit les techniques agricoles, mais aussi les auberges, l'état des routes et celui de la population.
+Il entreprend trois voyages en France, entre 1787 et 1790. En Bretagne, à Rennes, il constate l'écart entre la noblesse et la roture, le mécontentement des nobles, le parlement ayant été banni et celui du peuple devant la cherté de la vie, alors que de nombreuses troupes campent aux portes de la ville. Il observe avec minutie ce pays étranger, et à chaque étape de son voyage, il décrit les techniques agricoles, mais aussi les auberges, l'état des routes et celui de la population.
 Pour le premier voyage de mai à novembre 1787, il accompagne des amis dans un trajet nord-sud vers Bagnères-de-Luchon dans les Pyrénées. Cependant, il fait seul de longs détours pour voir davantage de pays. Arrivé à destination, il parcourt avec un ami les Pyrénées et la Catalogne, et arrive à Barcelone. Il rentre ensuite à Paris en visitant au passage de nombreuses régions, puis séjourne quelque temps dans la capitale française. D'août à octobre 1788, il fait un second voyage, seul cette fois. Pour son troisième voyage, il arrive en juin 1789 à Paris et rencontre une société en effervescence. Puis il poursuit vers l'est, jusqu'à Strasbourg, ensuite se rend à Toulon, et de là en Italie, et passe deux semaines à Florence. En janvier 1790, il est de retour à Paris. L'expérience de la Révolution modifie les opinions politiques de Young : il devient plus méfiant à l'égard du changement.
 En 1793 est créé en Grande-Bretagne le board of agriculture, dont Young devient le secrétaire général. Le comité entreprend de rédiger des rapports sur l'état de l'agriculture dans les différents comtés. Young réalise six de ces rapports. Quelques années plus tard, se souciant davantage du sort des pauvres, il propose des moyens pour leur attribuer des terres.
-Selon Paul Estrade [2], Arthur Young considérait le pacte colonial comme néfaste et caduc. Il serait le premier penseur européen à avoir formulé l'idée de la constitution d'un État indépendant unique de l'archipel antillais, dans Voyages en France (tome 2).
+Selon Paul Estrade , Arthur Young considérait le pacte colonial comme néfaste et caduc. Il serait le premier penseur européen à avoir formulé l'idée de la constitution d'un État indépendant unique de l'archipel antillais, dans Voyages en France (tome 2).
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf mention contraire, le contenu de cet article se fonde sur l'article de G. E. Mingay ‘Young, Arthur (1741–1820)’, Oxford Dictionary of National Biography, Oxford University Press, septembre 2004; online edn, Oct 2005, accès le 3 janvier 2008
 Le Duc de La Rochefoucauld-Liancourt, par Jean-Dominique de La Rochefoucauld, C. Wolikow et G. Ikni, Perrin, 1980.
@@ -586,7 +602,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arthur Young est l'auteur de très nombreux écrits. On peut citer :
 A Tour in Ireland, 1776-1779, with General Observations on the Present State of that Kingdom, tome 1, tome 2
@@ -627,9 +645,11 @@
           <t>Influence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexis de Tocqueville le cite à plusieurs reprises de façon élogieuse dans l'Ancien régime et la Révolution, ainsi « Arthur Young ... dont le livre est un des ouvrages les plus instructifs qui existent sur l'ancienne France »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexis de Tocqueville le cite à plusieurs reprises de façon élogieuse dans l'Ancien régime et la Révolution, ainsi « Arthur Young ... dont le livre est un des ouvrages les plus instructifs qui existent sur l'ancienne France ».
 </t>
         </is>
       </c>
